--- a/Capitulo2/doc/estudio casillas.xlsx
+++ b/Capitulo2/doc/estudio casillas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uibes-my.sharepoint.com/personal/jsv412_id_uib_cat/Documents/GEIN 3 - UIB/3r Curs/2n Quatrimestre/Algorismes Avançats - 21747/practica/Capitulo2/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B8EB7F-4B1E-4134-A7F4-77368BAFBB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{55B8EB7F-4B1E-4134-A7F4-77368BAFBB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53EF1D92-124C-4227-9BC2-3A66DEB6FE5C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58AEE771-08E0-4946-BF33-F3CF7479A45D}"/>
   </bookViews>
@@ -32,6 +32,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Media Blancas:</t>
+  </si>
+  <si>
+    <t>Media Negras:</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,18 +408,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D254039A-EC8A-4D38-90B9-43EE5D9D2DEE}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>8.9770000000000006E-3</v>
       </c>
@@ -428,7 +440,7 @@
         <v>2.464E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8.0649999999999993E-3</v>
       </c>
@@ -448,7 +460,7 @@
         <v>2.722E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.0389000000000001E-2</v>
       </c>
@@ -468,7 +480,7 @@
         <v>2.6329999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8.9079999999999993E-3</v>
       </c>
@@ -488,7 +500,7 @@
         <v>2.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -508,7 +520,7 @@
         <v>2.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>AVERAGE(A1:A5)</f>
         <v>9.0750000000000015E-3</v>
@@ -533,8 +545,24 @@
         <f t="shared" si="0"/>
         <v>2.4345999999999999E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(A6,C6,E6,B13,D13,F13,A20,C20,E20,B27,D27,F27,A34,C34,E34,B41,D41,F41)</f>
+        <v>1.213119011111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(B6,D6,F6,A13,C13,E13,B20,D20,F20,A27,C27,E27,B34,D34,F34,A41,C41,E41)</f>
+        <v>12.249133711111108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>144.229679</v>
       </c>
@@ -554,7 +582,7 @@
         <v>1.2578000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3.9079000000000003E-2</v>
       </c>
@@ -571,7 +599,7 @@
         <v>1.2038999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3.6777999999999998E-2</v>
       </c>
@@ -588,7 +616,7 @@
         <v>1.2172000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3.7588000000000003E-2</v>
       </c>
@@ -605,7 +633,7 @@
         <v>1.3136E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3.7407999999999997E-2</v>
       </c>
@@ -622,7 +650,7 @@
         <v>1.2251E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>144.229679</v>
       </c>
@@ -647,7 +675,7 @@
         <v>1.24352E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.075E-3</v>
       </c>
@@ -667,7 +695,7 @@
         <v>1.8519000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.3400000000000001E-4</v>
       </c>
